--- a/Results/PyFCS_Val_Results.xlsx
+++ b/Results/PyFCS_Val_Results.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -522,6 +523,521 @@
       <c r="D2" t="n">
         <v>3</v>
       </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>UP_1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UP_2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>UP_3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>U_Comment</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>CP_1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CP_2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CP_3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>C_Comment</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>LP_1</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>LP_2</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LP_3</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>L_Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>3</v>
@@ -530,11 +1046,9 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
@@ -545,32 +1059,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -580,21 +1088,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
@@ -603,9 +1105,7 @@
       <c r="K4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -615,28 +1115,30 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -652,27 +1154,21 @@
       <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
@@ -685,23 +1181,19 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>
@@ -712,30 +1204,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -745,14 +1229,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>3</v>
@@ -764,11 +1246,9 @@
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -778,26 +1258,30 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,30 +1291,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -840,14 +1316,12 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>3</v>
@@ -856,14 +1330,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -873,27 +1345,23 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
     </row>
@@ -904,7 +1372,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -916,7 +1384,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -935,26 +1403,20 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -964,20 +1426,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -985,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -999,17 +1461,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1018,11 +1478,9 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
     </row>
   </sheetData>
